--- a/ai/results.xlsx
+++ b/ai/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Workspaces\emotion_recognition\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4495140-1C8D-45D8-B4C1-2FE68A38574C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A5C267-A3EA-4731-A97D-AB0C55217A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEDA0F6E-91A2-4C89-9336-9DF2478FF9D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
   <si>
     <t>Função de ativação</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Adam</t>
   </si>
   <si>
-    <t>DOING</t>
-  </si>
-  <si>
     <t>Save method</t>
   </si>
   <si>
@@ -93,6 +90,42 @@
   </si>
   <si>
     <t>MODEL</t>
+  </si>
+  <si>
+    <t>model_L2_BS64_E24.h5</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>model_L2_BS64_E60.h5</t>
+  </si>
+  <si>
+    <t>model_L2_BS128_E24.h5</t>
+  </si>
+  <si>
+    <t>model_L2_BS128_E48.h5</t>
+  </si>
+  <si>
+    <t>model_L2_BS128_E60.h5</t>
+  </si>
+  <si>
+    <t>model_L3_BS64_E24.h5</t>
+  </si>
+  <si>
+    <t>model_L3_BS64_E48.h5</t>
+  </si>
+  <si>
+    <t>model_L3_BS64_E60.h5</t>
+  </si>
+  <si>
+    <t>model_L3_BS128_E24.h5</t>
+  </si>
+  <si>
+    <t>model_L3_BS128_E48.h5</t>
+  </si>
+  <si>
+    <t>model_L3_BS128_E60.h5</t>
   </si>
 </sst>
 </file>
@@ -163,18 +196,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -182,6 +203,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,7 +533,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +545,7 @@
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="27.5703125" customWidth="1"/>
     <col min="15" max="15" width="24.85546875" customWidth="1"/>
@@ -520,21 +553,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="8" t="s">
-        <v>18</v>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
@@ -565,463 +598,565 @@
       <c r="J2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3"/>
+      <c r="K2" s="2" t="s">
+        <v>19</v>
+      </c>
       <c r="N2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="6"/>
+      <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="7" t="s">
+    </row>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>64</v>
+      </c>
+      <c r="F3" s="2">
+        <v>24</v>
+      </c>
+      <c r="G3" s="2">
+        <v>0.67207986116409302</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.62656247615814198</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.88231450319290095</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.02381384372711</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D4" s="2">
         <v>2</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E4" s="2">
         <v>64</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F4" s="2">
+        <v>48</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.84709811210632302</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.647017061710357</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.41737824678420998</v>
+      </c>
+      <c r="J4" s="2">
+        <v>1.0265299081802299</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2">
+        <v>64</v>
+      </c>
+      <c r="F5" s="2">
+        <v>60</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.89094829559326105</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.65340906381607</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.29985111951827997</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1.0428119897842401</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>128</v>
+      </c>
+      <c r="F6" s="2">
         <v>24</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="O3" s="2"/>
-      <c r="P3" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="G6" s="2">
+        <v>0.62178927659988403</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.604403436183929</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1.00086033344268</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1.06945240497589</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E7" s="2">
+        <v>128</v>
+      </c>
+      <c r="F7" s="2">
+        <v>48</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.789112329483032</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.64289772510528498</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.57063537836074796</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1.01427114009857</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2">
+        <v>128</v>
+      </c>
+      <c r="F8" s="2">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.85024219751357999</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.64545452594757002</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.41016936302184998</v>
+      </c>
+      <c r="J8" s="2">
+        <v>1.0250822305679299</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>64</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F9" s="2">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0.65020692348480202</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0.612215936183929</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.93013930320739702</v>
+      </c>
+      <c r="J9" s="2">
+        <v>1.05902004241943</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="2">
+        <v>3</v>
+      </c>
+      <c r="E10" s="2">
+        <v>64</v>
+      </c>
+      <c r="F10" s="2">
         <v>48</v>
       </c>
-      <c r="G4" s="3">
-        <v>0.84709811210632302</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0.647017061710357</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.41737824678420998</v>
-      </c>
-      <c r="J4" s="3">
-        <v>1.0265299081802299</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="G10" s="2">
+        <v>0.82362556457519498</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.64460229873657204</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0.48064321279525701</v>
+      </c>
+      <c r="J10" s="2">
+        <v>1.03503429889678</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="3">
-        <v>2</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2">
         <v>64</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F11" s="2">
         <v>60</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
+      <c r="G11" s="2">
+        <v>0.87947285175323398</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.65014207363128595</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0.33595067262649497</v>
+      </c>
+      <c r="J11" s="2">
+        <v>1.0284992456436099</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="D12" s="2">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2">
         <v>128</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F12" s="2">
         <v>24</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="G12" s="2">
+        <v>0.60105252265930098</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0.605823874473571</v>
+      </c>
+      <c r="I12" s="2">
+        <v>1.0634281635284399</v>
+      </c>
+      <c r="J12" s="2">
+        <v>1.0885653495788501</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D13" s="2">
+        <v>3</v>
+      </c>
+      <c r="E13" s="2">
         <v>128</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F13" s="2">
         <v>48</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="G13" s="2">
+        <v>0.766179919242858</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.64048296213150002</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0.62610107660293501</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.0415675640106199</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
+      <c r="D14" s="2">
+        <v>3</v>
+      </c>
+      <c r="E14" s="2">
         <v>128</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F14" s="2">
         <v>60</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>64</v>
-      </c>
-      <c r="F9" s="3">
-        <v>24</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="3">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3">
-        <v>64</v>
-      </c>
-      <c r="F10" s="3">
-        <v>48</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="3">
-        <v>3</v>
-      </c>
-      <c r="E11" s="3">
-        <v>64</v>
-      </c>
-      <c r="F11" s="3">
-        <v>60</v>
-      </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="3">
-        <v>128</v>
-      </c>
-      <c r="F12" s="3">
-        <v>24</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="3">
-        <v>128</v>
-      </c>
-      <c r="F13" s="3">
-        <v>48</v>
-      </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="3">
-        <v>128</v>
-      </c>
-      <c r="F14" s="3">
-        <v>60</v>
-      </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
+      <c r="G14" s="2">
+        <v>0.82368522882461503</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.65184658765792802</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0.47680070996284402</v>
+      </c>
+      <c r="J14" s="2">
+        <v>1.03620529174804</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/ai/results.xlsx
+++ b/ai/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Workspaces\emotion_recognition\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0A5C267-A3EA-4731-A97D-AB0C55217A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679E5563-5BF8-4BB0-837B-F05DE6DAA27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEDA0F6E-91A2-4C89-9336-9DF2478FF9D6}"/>
   </bookViews>
@@ -533,7 +533,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+      <selection activeCell="B1" sqref="B1:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ai/results.xlsx
+++ b/ai/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Workspaces\emotion_recognition\ai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{679E5563-5BF8-4BB0-837B-F05DE6DAA27F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B6D2C-EE5C-4880-B0CE-B7DB299D7BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CEDA0F6E-91A2-4C89-9336-9DF2478FF9D6}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="44">
   <si>
     <t>Função de ativação</t>
   </si>
@@ -86,46 +86,88 @@
     <t>model_L2_BS64_E48.h5</t>
   </si>
   <si>
-    <t>model(L + nLayers + BS +batchSize + E + epochs)</t>
-  </si>
-  <si>
     <t>MODEL</t>
   </si>
   <si>
-    <t>model_L2_BS64_E24.h5</t>
-  </si>
-  <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>model_L2_BS64_E60.h5</t>
-  </si>
-  <si>
-    <t>model_L2_BS128_E24.h5</t>
-  </si>
-  <si>
-    <t>model_L2_BS128_E48.h5</t>
-  </si>
-  <si>
-    <t>model_L2_BS128_E60.h5</t>
-  </si>
-  <si>
-    <t>model_L3_BS64_E24.h5</t>
-  </si>
-  <si>
-    <t>model_L3_BS64_E48.h5</t>
-  </si>
-  <si>
-    <t>model_L3_BS64_E60.h5</t>
-  </si>
-  <si>
-    <t>model_L3_BS128_E24.h5</t>
-  </si>
-  <si>
-    <t>model_L3_BS128_E48.h5</t>
-  </si>
-  <si>
-    <t>model_L3_BS128_E60.h5</t>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>model( opt + L + nLayers + BS +batchSize + E + epochs)</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS64_E24.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS128_E24.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L2_BS64_E24.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L2_BS64_E48.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L2_BS64_E60.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L2_BS128_E24.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L2_BS128_E48.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L2_BS128_E60.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L3_BS64_E24.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L3_BS64_E48.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L3_BS64_E60.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L3_BS128_E24.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L3_BS128_E48.h5</t>
+  </si>
+  <si>
+    <t>model_ADAM_L3_BS128_E60.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS64_E48.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS64_E60.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS128_E48.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS128_E60.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS128_E120.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS64_E120.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS64_E180.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS64_E240.h5</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS128_E180.h</t>
+  </si>
+  <si>
+    <t>model_SGD_L2_BS128_E240.h</t>
   </si>
 </sst>
 </file>
@@ -530,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BD10209-8A3D-4941-A3DA-CED04B2DCAC9}">
-  <dimension ref="B1:P27"/>
+  <dimension ref="B1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:P15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +587,7 @@
     <col min="6" max="6" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="11.85546875" customWidth="1"/>
     <col min="14" max="14" width="27.5703125" customWidth="1"/>
     <col min="15" max="15" width="24.85546875" customWidth="1"/>
@@ -567,7 +609,7 @@
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
       <c r="K1" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
@@ -599,7 +641,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="N2" s="6" t="s">
         <v>13</v>
@@ -638,10 +680,10 @@
         <v>1.02381384372711</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="N3" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O3" s="7"/>
       <c r="P3" s="1" t="s">
@@ -677,7 +719,7 @@
         <v>1.0265299081802299</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
@@ -711,7 +753,7 @@
         <v>1.0428119897842401</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -743,7 +785,7 @@
         <v>1.06945240497589</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
@@ -775,7 +817,7 @@
         <v>1.01427114009857</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
@@ -807,7 +849,7 @@
         <v>1.0250822305679299</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
@@ -839,7 +881,7 @@
         <v>1.05902004241943</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
@@ -871,7 +913,7 @@
         <v>1.03503429889678</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
@@ -903,7 +945,7 @@
         <v>1.0284992456436099</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -935,7 +977,7 @@
         <v>1.0885653495788501</v>
       </c>
       <c r="K12" s="2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
@@ -967,7 +1009,7 @@
         <v>1.0415675640106199</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -999,164 +1041,519 @@
         <v>1.03620529174804</v>
       </c>
       <c r="K14" s="2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="B15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>64</v>
+      </c>
+      <c r="F15" s="2">
+        <v>24</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0.23444727063178999</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.27855113148689198</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1.9786031246185301</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.79431116580963</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="B16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2">
+        <v>64</v>
+      </c>
+      <c r="F16" s="2">
+        <v>48</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0.25805890560150102</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0.31633523106575001</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1.90116655826568</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1.7258843183517401</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="B17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2">
+        <v>64</v>
+      </c>
+      <c r="F17" s="2">
+        <v>60</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0.28455680608749301</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0.321022719144821</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.83261489868164</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1.72468745708465</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
+      <c r="B18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <v>64</v>
+      </c>
+      <c r="F18" s="2">
+        <v>120</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0.33153668045997597</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.37940341234207098</v>
+      </c>
+      <c r="I18" s="2">
+        <v>1.7194749116897501</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1.60497379302978</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="B19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
+      <c r="E19" s="2">
+        <v>64</v>
+      </c>
+      <c r="F19" s="2">
+        <v>180</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0.37670826911926197</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.42428976297378501</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1.6092342138290401</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1.4993422031402499</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>64</v>
+      </c>
+      <c r="F20" s="2">
+        <v>240</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0.39872032403945901</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.447443187236785</v>
+      </c>
+      <c r="I20" s="2">
+        <v>1.5516101121902399</v>
+      </c>
+      <c r="J20" s="2">
+        <v>1.4497655630111601</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2">
+        <v>128</v>
+      </c>
+      <c r="F21" s="2">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0.221238628029823</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.26931819319724998</v>
+      </c>
+      <c r="I21" s="2">
+        <v>2.0339708328246999</v>
+      </c>
+      <c r="J21" s="2">
+        <v>1.8411406278610201</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
+      <c r="B22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>128</v>
+      </c>
+      <c r="F22" s="2">
+        <v>48</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0.24176628887653301</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.29076704382896401</v>
+      </c>
+      <c r="I22" s="2">
+        <v>1.9681639671325599</v>
+      </c>
+      <c r="J22" s="2">
+        <v>1.74714744091033</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
+      <c r="E23" s="2">
+        <v>128</v>
+      </c>
+      <c r="F23" s="2">
+        <v>60</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0.27571183443069402</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.31832385063171298</v>
+      </c>
+      <c r="I23" s="2">
+        <v>1.8528809547424301</v>
+      </c>
+      <c r="J23" s="2">
+        <v>1.73851442337036</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2</v>
+      </c>
+      <c r="E24" s="2">
+        <v>128</v>
+      </c>
+      <c r="F24" s="2">
+        <v>120</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0.28149724006652799</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.318892031908035</v>
+      </c>
+      <c r="I24" s="2">
+        <v>1.8363176584243699</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1.6950711011886499</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
+      <c r="B25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2</v>
+      </c>
+      <c r="E25" s="2">
+        <v>128</v>
+      </c>
+      <c r="F25" s="2">
+        <v>180</v>
+      </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="2" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>128</v>
+      </c>
+      <c r="F26" s="2">
+        <v>240</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="2">
+        <v>3</v>
+      </c>
+      <c r="E27" s="2">
+        <v>64</v>
+      </c>
+      <c r="F27" s="2">
+        <v>24</v>
+      </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="2">
+        <v>3</v>
+      </c>
+      <c r="E28" s="2">
+        <v>64</v>
+      </c>
+      <c r="F28" s="2">
+        <v>48</v>
+      </c>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>64</v>
+      </c>
+      <c r="F29" s="2">
+        <v>60</v>
+      </c>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>128</v>
+      </c>
+      <c r="F30" s="2">
+        <v>24</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="2">
+        <v>3</v>
+      </c>
+      <c r="E31" s="2">
+        <v>128</v>
+      </c>
+      <c r="F31" s="2">
+        <v>48</v>
+      </c>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3</v>
+      </c>
+      <c r="E32" s="2">
+        <v>128</v>
+      </c>
+      <c r="F32" s="2">
+        <v>60</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
